--- a/config_ios/fish_3d_yutu_random_1.xlsx
+++ b/config_ios/fish_3d_yutu_random_1.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_ios/fish_3d_yutu_random_1.xlsx
+++ b/config_ios/fish_3d_yutu_random_1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20,21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +306,14 @@
   </si>
   <si>
     <t>37,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,16 +1020,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1034,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>41</v>
@@ -1049,7 +1053,7 @@
         <v>55</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1057,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>180</v>
@@ -1066,10 +1070,10 @@
         <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1077,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -1086,10 +1090,10 @@
         <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1097,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>400</v>
@@ -1106,10 +1110,10 @@
         <v>600</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1117,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>500</v>
@@ -1126,10 +1130,10 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1137,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1146,10 +1150,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -1166,10 +1170,27 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>800</v>
+      </c>
+      <c r="D8">
+        <v>1200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -1639,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -1656,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -1673,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -1690,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>
